--- a/meetings/helpers/BurndownChart.20101025.xlsx
+++ b/meetings/helpers/BurndownChart.20101025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="270" windowWidth="19320" windowHeight="10680" activeTab="1"/>
+    <workbookView xWindow="840" yWindow="270" windowWidth="19320" windowHeight="10680"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>completed</t>
   </si>
@@ -39,49 +39,37 @@
     <t>Remaining</t>
   </si>
   <si>
-    <t>Modificar el esquema de la base de datos para soportar multiples Supervisores por CampañaEsquemaEsquemaEsquemaEsquemaEsquema</t>
-  </si>
-  <si>
-    <t>Modificar el repositorio que accede a la base de datos para guardar la nueva Campaña</t>
-  </si>
-  <si>
-    <t>Modificar la pantalla de Alta de Campañas para soportar multiples Supervisores</t>
-  </si>
-  <si>
-    <t>Analizar en detalle en que consiste cada una de las metricas a implementar en el sistema SelfManagement</t>
-  </si>
-  <si>
-    <t>Diseñar una interfaz / clase abstracta común para todas las métricas</t>
-  </si>
-  <si>
-    <t>Implementar el repositorio para acceder a la base de datos (lectura y escritura)</t>
-  </si>
-  <si>
-    <t>Implementar la logica del calculo de la parte variable del sueldo en base a las metricas</t>
-  </si>
-  <si>
-    <t>Implementar la logica para proyectar el sueldo variable a fin de mes en base a las tendencias de las metricas</t>
-  </si>
-  <si>
-    <t>Agregar soporte a la pantalla de estadisticas de Agentes para mostrar el sueldo variable calculado y el proyectado</t>
-  </si>
-  <si>
-    <t>Implementar el alta/baja/modificacion de los Agentes en batch desde el archivo de Human Force</t>
-  </si>
-  <si>
-    <t>Implementar la pantalla de estadisticas de Agentes</t>
-  </si>
-  <si>
-    <t>Implementar las métricas seleccionadas para el sistema SelfManagement usando la interfaz comun como base</t>
-  </si>
-  <si>
-    <t>Implementar la logica génerica de procesamiento de las metricas en base a los archivos de los sistemas externos usando la interfaz comun a todas</t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
     <t>pending</t>
+  </si>
+  <si>
+    <t>Analizar los posibles errores que se pueden encontrar en los archivos de los sistemas externos que alimentan a nuestro sistema SelfManagement</t>
+  </si>
+  <si>
+    <t>Modificar el esquema de la base de datos para soportar el almacenamiento de las horas extras trabajadas por cada Agente por cada mes</t>
+  </si>
+  <si>
+    <t>Modificar el modelo de domino para soportar el almacenamiento de las horas extras trabajadas por cada Agente por cada mes</t>
+  </si>
+  <si>
+    <t>Modificar la pantalla de Agentes para incluir informacion acerca de la liquidacion de las horas extra en la sección de Liquidacion</t>
+  </si>
+  <si>
+    <t>Modificar la pantalla de Agentes para incluir los graficos con las estadisticas de las metricas</t>
+  </si>
+  <si>
+    <t>Implementar el procesamiento del archivo de HF (Human Force) para dar de alta nuevos Agentes en batch con los datos del perfil correspondientes</t>
+  </si>
+  <si>
+    <t>Implementar el procesamiento de los archivos TTS para la obtención de las horas extras comparando con el total de horas de la jornada laboral</t>
+  </si>
+  <si>
+    <t>Implementar 3 métricas adicionales (AUX_TM, una de AVAIL y una de AVG)</t>
+  </si>
+  <si>
+    <t>Actualizar los repositorios para agregar operaciones para dar de alta nuevos usuarios con los datos del perfil</t>
   </si>
 </sst>
 </file>
@@ -117,12 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -254,11 +239,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="53631232"/>
-        <c:axId val="67982464"/>
+        <c:axId val="100562432"/>
+        <c:axId val="100564352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="53631232"/>
+        <c:axId val="100562432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -276,13 +261,13 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67982464"/>
+        <c:crossAx val="100564352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67982464"/>
+        <c:axId val="100564352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -321,7 +306,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53631232"/>
+        <c:crossAx val="100562432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -330,7 +315,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -372,8 +357,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:D14" totalsRowShown="0">
-  <autoFilter ref="A1:D14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:D10" totalsRowShown="0">
+  <autoFilter ref="A1:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Title"/>
     <tableColumn id="2" name="Weight"/>
@@ -684,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -712,13 +697,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <f>SUM(B2:B14)</f>
@@ -728,7 +713,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -743,11 +728,11 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -760,159 +745,119 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" ref="D13:D14" si="1">D12-B12</f>
-        <v>3</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://wolof.southworksinc.com/selfmanagement/stories/c3d943a0-c670-012d-3995-12313b03240e"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://wolof.southworksinc.com/selfmanagement/stories/c3dab150-c1b9-012d-76f3-123139183151"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://wolof.southworksinc.com/selfmanagement/stories/0629f520-c1ba-012d-76f4-123139183151"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://wolof.southworksinc.com/selfmanagement/stories/9d375dc0-c1ba-012d-76fb-123139183151"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://wolof.southworksinc.com/selfmanagement/stories/de4b0e90-c1ba-012d-76fc-123139183151"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://wolof.southworksinc.com/selfmanagement/stories/60611c90-c1bd-012d-773d-123139183151"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://wolof.southworksinc.com/selfmanagement/stories/a03bcc30-c1f1-012d-784e-123139183151"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://wolof.southworksinc.com/selfmanagement/stories/f4b5c550-c1f3-012d-78cf-123139183151"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -921,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
